--- a/tender_records/tender_history.xlsx
+++ b/tender_records/tender_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,46 @@
           <t>Deadline</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Link_x</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Description_x</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Country_x</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Deadline_x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Link_y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Description_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Country_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Deadline_y</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +536,14 @@
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,6 +576,14 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +616,14 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -592,6 +656,14 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -624,6 +696,14 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -656,6 +736,14 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -688,6 +776,14 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -720,6 +816,14 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -752,6 +856,14 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -784,6 +896,14 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -817,6 +937,14 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -849,6 +977,14 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -881,6 +1017,14 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -913,6 +1057,14 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -945,6 +1097,14 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -978,6 +1138,14 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1010,6 +1178,14 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1043,6 +1219,14 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1074,6 +1258,14 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1106,6 +1298,14 @@
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1139,6 +1339,14 @@
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1172,6 +1380,777 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>381220-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/381220-2025</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Umzugsplanung RZ-Nord
+Place of performance: Germany,Nürnberg, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Freistaat Bayern vertreten durch das Bayerische Landesamt für Steuern - Zentrale Vergabestelle -</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>381161-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/381161-2025</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Germany – Internet service providers ISP – Gemeinde Mauth - Gigabit-RL 2.0 (2024) - Auswahlverfahren einer Dienstleistungskonzession im Wirtschaftlichkeitslückenmodell für die Planung, Errichtung und den Betrieb eines Gigabit-Netzes (Kopie)
+Place of performance: Germany,Freyung-Grafenau
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Gemeinde Mauth</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>381036-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/381036-2025</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Germany – Business analysis consultancy services – Ganzheitliche Organisationsuntersuchung / - entwicklung
+Change notice
+Place of performance: Germany,Viersen
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Stadt Nettetal</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>381018-2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/381018-2025</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Rahmenvereinbarung Prozessmodellierungssoftware
+Change notice
+Place of performance: Germany,Erfurt, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Freistaat Thüringen vertreten durch das Thüringer Ministerium für Digitales und Infrastruktur</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>380868-2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/380868-2025</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Germany – Software maintenance and repair services – Instandhaltungsverlängerung für M12-2 Datenbankserver
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: Bundesrepublik Deutschland - Bundesamt für Justiz</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>380803-2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/380803-2025</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – 23014 Stadt Biberach - Server &amp; Storage PG - Schulen BC
+Change notice
+Place of performance: Germany,Biberach
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Stadt Biberach - Amt für Bildung, Betreuung und Sport</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>380656-2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/380656-2025</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Germany – Software development services – IT-Dienstleistungen im Bereich GUPTA
+Place of performance: Germany,Extra-Regio NUTS 3
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Bundesrepublik Deutschland, vertreten durch das Bundesministerium des Innern und für Heimat, vertreten durch das Beschaffungsamt des BMI</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>380452-2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/380452-2025</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Rahmenvereinbarung A12 Partner
+Place of performance: Germany,München, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Zentrale Vergabestelle im Bayerischen Landesamt für Steuern</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>380368-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/380368-2025</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Germany – Software supply services – Customer Identity &amp; Access Management Tool [aa]
+Place of performance: Germany,Hamburg
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Hamburger Hochbahn AG</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>380219-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/380219-2025</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Externer Berater IT Sicherheit und Prozessmanagement/Wissensmanagement
+Place of performance: Germany,Diepholz
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Landkreis Diepholz</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>379981-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/379981-2025</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Unterstützung bei der Entwicklung digitaler Projekte
+Place of performance: Germany,Wuppertal, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: BARMER Beschaffung und Vergabe</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>379856-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/379856-2025</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Germany – Rescue services – Vergabe eines Telenotarztsystems im Rettungsdienstbereich der Stadt Leipzig
+Place of performance: Germany,Leipzig, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Stadt Leipzig</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>379532-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/379532-2025</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Germany – Software package and information systems – Lieferung und Implementierung eines Betriebshofmanagementsystems (E-BMS), Los 1 und eines Lastlademanagementsystems (LLMS), Los 2.
+Place of performance: Germany,Mönchengladbach, Kreisfreie Stadt
+Main nature of the contract: Supplies,Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: NEW AG für NEW mobil und aktiv Mönchengladbach GmbH</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>379378-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/379378-2025</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Germany – Systems and technical consultancy services – Langfristige Beraterleistung Clientservice_BA_0098_2025 - BayLfSt
+Place of performance: Germany,München, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Zentrale Vergabestelle im Bayerischen Landesamt für Steuern</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>379163-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/379163-2025</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Betrieb IT Syteme HIL
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: HIL Heeresinstandsetzungslogistik GmbH</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>379066-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/379066-2025</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Unterstützung ISB
+Place of performance: Germany,Essen, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Emschergenossenschaft</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>378947-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/378947-2025</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Beihilfeabrechnungssoftware in Form von Software as a Service
+Place of performance: Germany,München, Kreisfreie Stadt,Frankfurt (Oder), Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Deutsche Rentenversicherung Bayern Süd, Abteilung Verwaltung und IT</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>378925-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/378925-2025</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Germany – Repair, maintenance and associated services related to personal computers, office equipment, telecommunications and audio-visual equipment – Verhandlungsverfahren mit Teilnahmewettbewerb (EU-weit) zur Vergabe des Client-Hardware Managements für die Bundesanstalt für Immobilienaufgaben, Sparte IT (Vergabenummer VOEK 498-24)
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Bundesanstalt für Immobilienaufgaben</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>378325-2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/378325-2025</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Germany – Software maintenance and repair services – Serveradministration
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Stiftung Haus der Geschichte der Bundesrepublik Deutschland</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
